--- a/myapp/files/test/dunn_impact_res.xlsx
+++ b/myapp/files/test/dunn_impact_res.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t xml:space="preserve">Comparison</t>
   </si>
@@ -29,25 +29,28 @@
     <t xml:space="preserve">admi - care</t>
   </si>
   <si>
-    <t xml:space="preserve">&lt;0.001</t>
+    <t xml:space="preserve">&lt;0.0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0001</t>
   </si>
   <si>
     <t xml:space="preserve">admi - mana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.004</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.041</t>
+    <t xml:space="preserve">0.0011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0107</t>
   </si>
   <si>
     <t xml:space="preserve">care - mana</t>
   </si>
   <si>
-    <t xml:space="preserve">0.357</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.000</t>
+    <t xml:space="preserve">0.7589</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.0000</t>
   </si>
   <si>
     <t xml:space="preserve">admi - medi</t>
@@ -62,16 +65,22 @@
     <t xml:space="preserve">admi - tech</t>
   </si>
   <si>
-    <t xml:space="preserve">0.034</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.342</t>
+    <t xml:space="preserve">0.5445</t>
   </si>
   <si>
     <t xml:space="preserve">care - tech</t>
   </si>
   <si>
+    <t xml:space="preserve">0.0002</t>
+  </si>
+  <si>
     <t xml:space="preserve">mana - tech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0241</t>
   </si>
   <si>
     <t xml:space="preserve">medi - tech</t>
@@ -425,49 +434,49 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>4.66182598641773</v>
+        <v>4.4041943363174</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>2.86858171214805</v>
+        <v>3.27222898396171</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="n">
-        <v>-0.922015840471955</v>
+        <v>-0.306954697946863</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B5" t="n">
-        <v>-8.66155424028127</v>
+        <v>-4.64325440314984</v>
       </c>
       <c r="C5" t="s">
         <v>5</v>
@@ -478,10 +487,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" t="n">
-        <v>-11.6514290972493</v>
+        <v>-7.65395829712351</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -492,10 +501,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="n">
-        <v>-9.45735323612917</v>
+        <v>-6.4847088783178</v>
       </c>
       <c r="C7" t="s">
         <v>5</v>
@@ -506,16 +515,16 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.11727169703135</v>
+        <v>0.60595394870053</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9">
@@ -523,35 +532,35 @@
         <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>-6.83070579524855</v>
+        <v>-4.2498745450593</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
-        <v>-4.46995957063229</v>
+        <v>-3.03441397913769</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B11" t="n">
-        <v>7.65934885446526</v>
+        <v>5.29438695629212</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
